--- a/public/plantilla_servicios_legislativos.xlsx
+++ b/public/plantilla_servicios_legislativos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>CAMPO</t>
   </si>
@@ -57,12 +57,18 @@
     <t>Primer Periodo Ordinario</t>
   </si>
   <si>
+    <t>NUMERO_ORDEN_DIA</t>
+  </si>
+  <si>
     <t>NUMERO</t>
   </si>
   <si>
     <t>TITULO</t>
   </si>
   <si>
+    <t>TEXTO_COMPLETO</t>
+  </si>
+  <si>
     <t>PRESENTADOR</t>
   </si>
   <si>
@@ -81,13 +87,19 @@
     <t>TURNO</t>
   </si>
   <si>
+    <t>FECHA_PRESENTACION</t>
+  </si>
+  <si>
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>EJEMPLO: Iniciativa de Ley de Educación</t>
-  </si>
-  <si>
-    <t>EJEMPLO: Reforma al artículo 15 de la Ley de Educación del Estado</t>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>EJEMPLO: Iniciativa con proyecto de decreto por el que se reforma el artículo 15 de la Ley de Educación del Estado de Morelos</t>
+  </si>
+  <si>
+    <t>EJEMPLO: Con fundamento en lo dispuesto por los artículos 40 fracción II, 42 fracción II y 50 de la Constitución Política del Estado Libre y Soberano de Morelos...</t>
   </si>
   <si>
     <t>Dip. Juan Pérez González</t>
@@ -99,19 +111,28 @@
     <t>simple</t>
   </si>
   <si>
+    <t>iniciativa_decreto</t>
+  </si>
+  <si>
     <t>Educación y Cultura</t>
   </si>
   <si>
     <t>Primera Lectura</t>
   </si>
   <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
     <t>Urgente y obvia resolución</t>
   </si>
   <si>
-    <t>EJEMPLO: Punto de Acuerdo Económico</t>
-  </si>
-  <si>
-    <t>EJEMPLO: Exhorto al Ejecutivo para implementar medidas de seguridad</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>EJEMPLO: Proposición con punto de acuerdo parlamentario por el que se exhorta respetuosamente al Titular del Poder Ejecutivo</t>
+  </si>
+  <si>
+    <t>EJEMPLO: Los que suscriben, diputados integrantes del Grupo Parlamentario del PAN, con fundamento en lo dispuesto por el artículo 18 fracción IV...</t>
   </si>
   <si>
     <t>Dip. María López Hernández</t>
@@ -126,46 +147,100 @@
     <t>punto_acuerdo</t>
   </si>
   <si>
-    <t>Seguridad Pública</t>
+    <t>Seguridad Pública y Protección Civil</t>
   </si>
   <si>
     <t>Única Lectura</t>
   </si>
   <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>Para su discusión y votación</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>EJEMPLO: Dictamen emanado de la Comisión de Hacienda, Presupuesto y Cuenta Pública</t>
+  </si>
+  <si>
+    <t>EJEMPLO: A la Comisión de Hacienda, Presupuesto y Cuenta Pública le fue turnada para su análisis y dictamen correspondiente...</t>
+  </si>
+  <si>
+    <t>Comisión de Hacienda</t>
+  </si>
+  <si>
+    <t>COMISIÓN</t>
+  </si>
+  <si>
+    <t>calificada</t>
+  </si>
+  <si>
+    <t>dictamen</t>
+  </si>
+  <si>
+    <t>Hacienda, Presupuesto y Cuenta Pública</t>
+  </si>
+  <si>
+    <t>Segunda Lectura</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>Dictamen en sentido positivo</t>
+  </si>
+  <si>
+    <t>INSTRUCCIONES DE USO</t>
+  </si>
+  <si>
+    <t>1. HOJA "DATOS_SESION":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Complete los campos con la información general de la sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - El campo NOMBRE_SESION es obligatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - La FECHA_PROPUESTA debe estar en formato YYYY-MM-DD</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>INSTRUCCIONES DE USO</t>
-  </si>
-  <si>
-    <t>1. HOJA "DATOS_SESION":</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Complete los campos con la información general de la sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - El campo NOMBRE_SESION es obligatorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - La FECHA_PROPUESTA debe estar en formato YYYY-MM-DD</t>
-  </si>
-  <si>
     <t>2. HOJA "INICIATIVAS":</t>
   </si>
   <si>
     <t xml:space="preserve">   - Agregue una fila por cada iniciativa</t>
   </si>
   <si>
-    <t xml:space="preserve">   - El campo NUMERO debe ser único y consecutivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - TITULO y PRESENTADOR son obligatorios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - TIPO_MAYORIA valores válidos: simple, absoluta, calificada, unanime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - TIPO_INICIATIVA valores válidos: ordinaria, extraordinaria, punto_acuerdo, decreto</t>
+    <t xml:space="preserve">   - NUMERO_ORDEN_DIA: Número como aparece en el orden del día (ej: 4.1, 5.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - NUMERO: Número consecutivo interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - TITULO: Título completo de la iniciativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - TEXTO_COMPLETO: Descripción detallada o extracto del contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - PRESENTADOR: Nombre completo del diputado o comisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - PARTIDO: Partido político del presentador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - TIPO_MAYORIA valores: simple, absoluta, calificada, unanime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - TIPO_INICIATIVA valores: iniciativa_decreto, punto_acuerdo, dictamen, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - FECHA_PRESENTACION: Formato YYYY-MM-DD</t>
   </si>
   <si>
     <t xml:space="preserve">   - Elimine las filas de ejemplo antes de cargar</t>
@@ -672,20 +747,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -693,101 +771,160 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" sqref="F2:F100">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F100">
+      <formula1>"MORENA,PAN,PRI,PRD,PT,PVEM,MC,PES,RSP,FXM,INDEPENDIENTE,COMISIÓN"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="G2:G100">
       <formula1>"simple,absoluta,calificada,unanime"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G2:G100">
-      <formula1>"ordinaria,extraordinaria,punto_acuerdo,decreto"</formula1>
+    <dataValidation type="list" sqref="H2:H100">
+      <formula1>"iniciativa_decreto,punto_acuerdo,dictamen,proposicion,minuta,extraordinaria"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -797,7 +934,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
@@ -805,127 +942,152 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
